--- a/data/financial_statements/sofp/CEG.xlsx
+++ b/data/financial_statements/sofp/CEG.xlsx
@@ -14,9 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -146,9 +173,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -201,12 +225,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -511,39 +532,39 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>43830</v>
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B2">
         <v>1303000000</v>
@@ -562,8 +583,8 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B3">
         <v>2398000000</v>
@@ -582,8 +603,8 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B4">
         <v>1464000000</v>
@@ -602,8 +623,8 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B5">
         <v>4688000000</v>
@@ -622,8 +643,8 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B6">
         <v>9853000000</v>
@@ -642,8 +663,8 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B7">
         <v>19705000000</v>
@@ -662,8 +683,8 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B8">
         <v>1445000000</v>
@@ -682,8 +703,8 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -705,8 +726,8 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B10">
         <v>23000000</v>
@@ -722,8 +743,8 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B11">
         <v>15590000000</v>
@@ -742,8 +763,8 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B12">
         <v>36763000000</v>
@@ -762,8 +783,8 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B13">
         <v>46616000000</v>
@@ -794,8 +815,8 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B14">
         <v>693000000</v>
@@ -814,8 +835,8 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B15">
         <v>2597000000</v>
@@ -834,8 +855,8 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B16">
         <v>933000000</v>
@@ -854,8 +875,8 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B17">
         <v>874000000</v>
@@ -874,8 +895,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -897,8 +918,8 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -920,8 +941,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B20">
         <v>4416000000</v>
@@ -940,8 +961,8 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B21">
         <v>7887000000</v>
@@ -960,8 +981,8 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B22">
         <v>4480000000</v>
@@ -980,8 +1001,8 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E23">
         <v>3703000000</v>
@@ -1003,8 +1024,8 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B24">
         <v>1497000000</v>
@@ -1020,8 +1041,8 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B25">
         <v>2624000000</v>
@@ -1040,8 +1061,8 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1063,8 +1084,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B27">
         <v>20433000000</v>
@@ -1083,8 +1104,8 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B28">
         <v>27560000000</v>
@@ -1103,8 +1124,8 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B29">
         <v>35447000000</v>
@@ -1135,8 +1156,8 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1158,8 +1179,8 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1181,8 +1202,8 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B32">
         <v>13255000000</v>
@@ -1213,8 +1234,8 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B33">
         <v>-483000000</v>
@@ -1233,8 +1254,8 @@
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1256,8 +1277,8 @@
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="E35">
         <v>11250000000</v>
@@ -1279,8 +1300,8 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B36">
         <v>10803000000</v>
@@ -1299,8 +1320,8 @@
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B37">
         <v>10803000000</v>
@@ -1331,8 +1352,8 @@
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B38">
         <v>46616000000</v>
@@ -1363,8 +1384,8 @@
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" t="s">
-        <v>38</v>
+      <c r="A39" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B39">
         <v>327000000</v>
@@ -1377,8 +1398,8 @@
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" t="s">
-        <v>39</v>
+      <c r="A40" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B40">
         <v>11169000000</v>
@@ -1397,8 +1418,8 @@
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" t="s">
-        <v>40</v>
+      <c r="A41" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B41">
         <v>4051000000</v>
@@ -1417,8 +1438,8 @@
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" t="s">
-        <v>41</v>
+      <c r="A42" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B42">
         <v>5354000000</v>
